--- a/Predator Prey data analysis.xlsx
+++ b/Predator Prey data analysis.xlsx
@@ -5,28 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinades/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinades/Downloads/AnimalBehaviorGameTheory-master 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7AB1F3-F82B-1745-8EB6-1EAC674F1DAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696F747F-7B3C-0741-B9C0-7AF4E31567CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{1D837715-F781-2C43-9C38-76EDFCDBD1DF}"/>
+    <workbookView xWindow="10380" yWindow="940" windowWidth="19820" windowHeight="17540" activeTab="3" xr2:uid="{1D837715-F781-2C43-9C38-76EDFCDBD1DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Mutant signal chance" sheetId="1" r:id="rId1"/>
-    <sheet name="Resident Signal chance" sheetId="2" r:id="rId2"/>
+    <sheet name="Mutant signal chance (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Resident Signal chance" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>For all tests, mutant signal chance is 50%</t>
   </si>
@@ -56,6 +64,12 @@
   </si>
   <si>
     <t>Mutant signal chance (%)</t>
+  </si>
+  <si>
+    <t>Extra values</t>
+  </si>
+  <si>
+    <t>Tests are done in batches of 5000</t>
   </si>
 </sst>
 </file>
@@ -91,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C6CD5-12F2-8B47-813F-1B294442FC86}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,6 +433,7 @@
     <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,11 +582,636 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD0067A-51FB-CE4A-A465-5090DA0C3E1D}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-2080.34</v>
+      </c>
+      <c r="C3">
+        <v>-1881.86</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>155</v>
+      </c>
+      <c r="G3">
+        <v>181</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>938</v>
+      </c>
+      <c r="K3">
+        <v>182</v>
+      </c>
+      <c r="L3">
+        <v>173</v>
+      </c>
+      <c r="M3">
+        <v>884</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1276</v>
+      </c>
+      <c r="Q3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-1988.56</v>
+      </c>
+      <c r="C4">
+        <v>-1871.24</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>163</v>
+      </c>
+      <c r="G4">
+        <v>140</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>818</v>
+      </c>
+      <c r="K4">
+        <v>177</v>
+      </c>
+      <c r="L4">
+        <v>181</v>
+      </c>
+      <c r="M4">
+        <v>921</v>
+      </c>
+      <c r="N4">
+        <v>47</v>
+      </c>
+      <c r="O4">
+        <v>75</v>
+      </c>
+      <c r="P4">
+        <v>1139</v>
+      </c>
+      <c r="Q4">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>-1917.44</v>
+      </c>
+      <c r="C5">
+        <v>-1860.26</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>133</v>
+      </c>
+      <c r="H5">
+        <v>92</v>
+      </c>
+      <c r="I5">
+        <v>84</v>
+      </c>
+      <c r="J5">
+        <v>682</v>
+      </c>
+      <c r="K5">
+        <v>177</v>
+      </c>
+      <c r="L5">
+        <v>203</v>
+      </c>
+      <c r="M5">
+        <v>907</v>
+      </c>
+      <c r="N5">
+        <v>112</v>
+      </c>
+      <c r="O5">
+        <v>119</v>
+      </c>
+      <c r="P5">
+        <v>976</v>
+      </c>
+      <c r="Q5">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>-1838</v>
+      </c>
+      <c r="C6">
+        <v>-1821.8</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+      <c r="H6">
+        <v>111</v>
+      </c>
+      <c r="I6">
+        <v>122</v>
+      </c>
+      <c r="J6">
+        <v>610</v>
+      </c>
+      <c r="K6">
+        <v>183</v>
+      </c>
+      <c r="L6">
+        <v>209</v>
+      </c>
+      <c r="M6">
+        <v>863</v>
+      </c>
+      <c r="N6">
+        <v>192</v>
+      </c>
+      <c r="O6">
+        <v>179</v>
+      </c>
+      <c r="P6">
+        <v>913</v>
+      </c>
+      <c r="Q6">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>-1724.72</v>
+      </c>
+      <c r="C7">
+        <v>-1805.78</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>109</v>
+      </c>
+      <c r="H7">
+        <v>174</v>
+      </c>
+      <c r="I7">
+        <v>192</v>
+      </c>
+      <c r="J7">
+        <v>534</v>
+      </c>
+      <c r="K7">
+        <v>194</v>
+      </c>
+      <c r="L7">
+        <v>195</v>
+      </c>
+      <c r="M7">
+        <v>911</v>
+      </c>
+      <c r="N7">
+        <v>239</v>
+      </c>
+      <c r="O7">
+        <v>256</v>
+      </c>
+      <c r="P7">
+        <v>732</v>
+      </c>
+      <c r="Q7">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>-1698.14</v>
+      </c>
+      <c r="C8">
+        <v>-1815.56</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>86</v>
+      </c>
+      <c r="G8">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>208</v>
+      </c>
+      <c r="I8">
+        <v>204</v>
+      </c>
+      <c r="J8">
+        <v>424</v>
+      </c>
+      <c r="K8">
+        <v>171</v>
+      </c>
+      <c r="L8">
+        <v>190</v>
+      </c>
+      <c r="M8">
+        <v>842</v>
+      </c>
+      <c r="N8">
+        <v>312</v>
+      </c>
+      <c r="O8">
+        <v>314</v>
+      </c>
+      <c r="P8">
+        <v>661</v>
+      </c>
+      <c r="Q8">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>-1558.4</v>
+      </c>
+      <c r="C9">
+        <v>-1751.9</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>126</v>
+      </c>
+      <c r="F9">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>83</v>
+      </c>
+      <c r="H9">
+        <v>264</v>
+      </c>
+      <c r="I9">
+        <v>270</v>
+      </c>
+      <c r="J9">
+        <v>362</v>
+      </c>
+      <c r="K9">
+        <v>185</v>
+      </c>
+      <c r="L9">
+        <v>193</v>
+      </c>
+      <c r="M9">
+        <v>851</v>
+      </c>
+      <c r="N9">
+        <v>378</v>
+      </c>
+      <c r="O9">
+        <v>371</v>
+      </c>
+      <c r="P9">
+        <v>514</v>
+      </c>
+      <c r="Q9">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>-1499.9</v>
+      </c>
+      <c r="C10">
+        <v>-1758.2</v>
+      </c>
+      <c r="D10">
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <v>143</v>
+      </c>
+      <c r="F10">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>332</v>
+      </c>
+      <c r="I10">
+        <v>277</v>
+      </c>
+      <c r="J10">
+        <v>283</v>
+      </c>
+      <c r="K10">
+        <v>180</v>
+      </c>
+      <c r="L10">
+        <v>191</v>
+      </c>
+      <c r="M10">
+        <v>839</v>
+      </c>
+      <c r="N10">
+        <v>443</v>
+      </c>
+      <c r="O10">
+        <v>426</v>
+      </c>
+      <c r="P10">
+        <v>410</v>
+      </c>
+      <c r="Q10">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>-1396.4</v>
+      </c>
+      <c r="C11">
+        <v>-1749.2</v>
+      </c>
+      <c r="D11">
+        <v>138</v>
+      </c>
+      <c r="E11">
+        <v>152</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>322</v>
+      </c>
+      <c r="I11">
+        <v>340</v>
+      </c>
+      <c r="J11">
+        <v>197</v>
+      </c>
+      <c r="K11">
+        <v>161</v>
+      </c>
+      <c r="L11">
+        <v>204</v>
+      </c>
+      <c r="M11">
+        <v>901</v>
+      </c>
+      <c r="N11">
+        <v>510</v>
+      </c>
+      <c r="O11">
+        <v>514</v>
+      </c>
+      <c r="P11">
+        <v>229</v>
+      </c>
+      <c r="Q11">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>-1326.92</v>
+      </c>
+      <c r="C12">
+        <v>-1733.48</v>
+      </c>
+      <c r="D12">
+        <v>144</v>
+      </c>
+      <c r="E12">
+        <v>172</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>403</v>
+      </c>
+      <c r="I12">
+        <v>381</v>
+      </c>
+      <c r="J12">
+        <v>89</v>
+      </c>
+      <c r="K12">
+        <v>179</v>
+      </c>
+      <c r="L12">
+        <v>153</v>
+      </c>
+      <c r="M12">
+        <v>874</v>
+      </c>
+      <c r="N12">
+        <v>562</v>
+      </c>
+      <c r="O12">
+        <v>607</v>
+      </c>
+      <c r="P12">
+        <v>134</v>
+      </c>
+      <c r="Q12">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>-1246.52</v>
+      </c>
+      <c r="C13">
+        <v>-1719.38</v>
+      </c>
+      <c r="D13">
+        <v>192</v>
+      </c>
+      <c r="E13">
+        <v>173</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>434</v>
+      </c>
+      <c r="I13">
+        <v>439</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>181</v>
+      </c>
+      <c r="L13">
+        <v>186</v>
+      </c>
+      <c r="M13">
+        <v>865</v>
+      </c>
+      <c r="N13">
+        <v>636</v>
+      </c>
+      <c r="O13">
+        <v>626</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490334BA-5E46-8C4C-B1DB-D9873C1FD43B}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,4 +1391,740 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506D8218-85CF-8F4D-B8D3-2D6F29E0BBBE}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-1699.16</v>
+      </c>
+      <c r="C3">
+        <v>-2058.7399999999998</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>372</v>
+      </c>
+      <c r="I3">
+        <v>311</v>
+      </c>
+      <c r="J3">
+        <v>623</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1301</v>
+      </c>
+      <c r="N3">
+        <v>305</v>
+      </c>
+      <c r="O3">
+        <v>286</v>
+      </c>
+      <c r="P3">
+        <v>608</v>
+      </c>
+      <c r="Q3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-1682</v>
+      </c>
+      <c r="C4">
+        <v>-1937</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>292</v>
+      </c>
+      <c r="I4">
+        <v>252</v>
+      </c>
+      <c r="J4">
+        <v>640</v>
+      </c>
+      <c r="K4">
+        <v>57</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <v>1023</v>
+      </c>
+      <c r="N4">
+        <v>354</v>
+      </c>
+      <c r="O4">
+        <v>338</v>
+      </c>
+      <c r="P4">
+        <v>617</v>
+      </c>
+      <c r="Q4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>-1679.3</v>
+      </c>
+      <c r="C5">
+        <v>-1887.5</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>274</v>
+      </c>
+      <c r="I5">
+        <v>234</v>
+      </c>
+      <c r="J5">
+        <v>481</v>
+      </c>
+      <c r="K5">
+        <v>119</v>
+      </c>
+      <c r="L5">
+        <v>123</v>
+      </c>
+      <c r="M5">
+        <v>997</v>
+      </c>
+      <c r="N5">
+        <v>329</v>
+      </c>
+      <c r="O5">
+        <v>314</v>
+      </c>
+      <c r="P5">
+        <v>647</v>
+      </c>
+      <c r="Q5">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>-1691.06</v>
+      </c>
+      <c r="C6">
+        <v>-1816.04</v>
+      </c>
+      <c r="D6">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>87</v>
+      </c>
+      <c r="H6">
+        <v>216</v>
+      </c>
+      <c r="I6">
+        <v>195</v>
+      </c>
+      <c r="J6">
+        <v>455</v>
+      </c>
+      <c r="K6" s="1">
+        <v>192</v>
+      </c>
+      <c r="L6" s="1">
+        <v>174</v>
+      </c>
+      <c r="M6" s="1">
+        <v>901</v>
+      </c>
+      <c r="N6" s="1">
+        <v>286</v>
+      </c>
+      <c r="O6" s="1">
+        <v>297</v>
+      </c>
+      <c r="P6" s="1">
+        <v>654</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>-1649.9</v>
+      </c>
+      <c r="C7">
+        <v>-1718</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>134</v>
+      </c>
+      <c r="F7">
+        <v>111</v>
+      </c>
+      <c r="G7">
+        <v>122</v>
+      </c>
+      <c r="H7">
+        <v>199</v>
+      </c>
+      <c r="I7">
+        <v>178</v>
+      </c>
+      <c r="J7">
+        <v>388</v>
+      </c>
+      <c r="K7" s="1">
+        <v>252</v>
+      </c>
+      <c r="L7" s="1">
+        <v>249</v>
+      </c>
+      <c r="M7" s="1">
+        <v>758</v>
+      </c>
+      <c r="N7" s="1">
+        <v>284</v>
+      </c>
+      <c r="O7" s="1">
+        <v>313</v>
+      </c>
+      <c r="P7" s="1">
+        <v>627</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>-1625.06</v>
+      </c>
+      <c r="C8">
+        <v>-1663.04</v>
+      </c>
+      <c r="D8">
+        <v>161</v>
+      </c>
+      <c r="E8">
+        <v>183</v>
+      </c>
+      <c r="F8">
+        <v>156</v>
+      </c>
+      <c r="G8">
+        <v>172</v>
+      </c>
+      <c r="H8">
+        <v>157</v>
+      </c>
+      <c r="I8">
+        <v>153</v>
+      </c>
+      <c r="J8">
+        <v>292</v>
+      </c>
+      <c r="K8" s="1">
+        <v>299</v>
+      </c>
+      <c r="L8" s="1">
+        <v>291</v>
+      </c>
+      <c r="M8" s="1">
+        <v>678</v>
+      </c>
+      <c r="N8" s="1">
+        <v>350</v>
+      </c>
+      <c r="O8" s="1">
+        <v>269</v>
+      </c>
+      <c r="P8" s="1">
+        <v>593</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>-1651.1</v>
+      </c>
+      <c r="C9">
+        <v>-1568</v>
+      </c>
+      <c r="D9">
+        <v>202</v>
+      </c>
+      <c r="E9">
+        <v>185</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>169</v>
+      </c>
+      <c r="H9">
+        <v>110</v>
+      </c>
+      <c r="I9">
+        <v>117</v>
+      </c>
+      <c r="J9">
+        <v>246</v>
+      </c>
+      <c r="K9" s="1">
+        <v>354</v>
+      </c>
+      <c r="L9" s="1">
+        <v>382</v>
+      </c>
+      <c r="M9" s="1">
+        <v>505</v>
+      </c>
+      <c r="N9" s="1">
+        <v>314</v>
+      </c>
+      <c r="O9" s="1">
+        <v>289</v>
+      </c>
+      <c r="P9" s="1">
+        <v>678</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>-1623.14</v>
+      </c>
+      <c r="C10">
+        <v>-1483.16</v>
+      </c>
+      <c r="D10">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>243</v>
+      </c>
+      <c r="F10">
+        <v>195</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>97</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>173</v>
+      </c>
+      <c r="K10" s="1">
+        <v>403</v>
+      </c>
+      <c r="L10" s="1">
+        <v>416</v>
+      </c>
+      <c r="M10" s="1">
+        <v>375</v>
+      </c>
+      <c r="N10" s="1">
+        <v>324</v>
+      </c>
+      <c r="O10" s="1">
+        <v>297</v>
+      </c>
+      <c r="P10" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>-1602.86</v>
+      </c>
+      <c r="C11">
+        <v>-1408.34</v>
+      </c>
+      <c r="D11">
+        <v>243</v>
+      </c>
+      <c r="E11">
+        <v>223</v>
+      </c>
+      <c r="F11">
+        <v>267</v>
+      </c>
+      <c r="G11">
+        <v>259</v>
+      </c>
+      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>114</v>
+      </c>
+      <c r="K11" s="1">
+        <v>500</v>
+      </c>
+      <c r="L11" s="1">
+        <v>504</v>
+      </c>
+      <c r="M11" s="1">
+        <v>262</v>
+      </c>
+      <c r="N11" s="1">
+        <v>342</v>
+      </c>
+      <c r="O11" s="1">
+        <v>289</v>
+      </c>
+      <c r="P11" s="1">
+        <v>616</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>-1595.42</v>
+      </c>
+      <c r="C12">
+        <v>-1328.78</v>
+      </c>
+      <c r="D12">
+        <v>301</v>
+      </c>
+      <c r="E12">
+        <v>276</v>
+      </c>
+      <c r="F12">
+        <v>276</v>
+      </c>
+      <c r="G12">
+        <v>267</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1">
+        <v>549</v>
+      </c>
+      <c r="L12" s="1">
+        <v>546</v>
+      </c>
+      <c r="M12" s="1">
+        <v>131</v>
+      </c>
+      <c r="N12" s="1">
+        <v>319</v>
+      </c>
+      <c r="O12" s="1">
+        <v>310</v>
+      </c>
+      <c r="P12" s="1">
+        <v>635</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>-1587.14</v>
+      </c>
+      <c r="C13">
+        <v>1235.06</v>
+      </c>
+      <c r="D13">
+        <v>305</v>
+      </c>
+      <c r="E13">
+        <v>335</v>
+      </c>
+      <c r="F13">
+        <v>318</v>
+      </c>
+      <c r="G13">
+        <v>287</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>647</v>
+      </c>
+      <c r="L13" s="1">
+        <v>625</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>303</v>
+      </c>
+      <c r="O13" s="1">
+        <v>287</v>
+      </c>
+      <c r="P13" s="1">
+        <v>644</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>-2143.1</v>
+      </c>
+      <c r="C16">
+        <v>-2147.6</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1245</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1278</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1263</v>
+      </c>
+      <c r="Q16">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>-1211.1199999999999</v>
+      </c>
+      <c r="C17">
+        <v>-1212.08</v>
+      </c>
+      <c r="D17">
+        <v>622</v>
+      </c>
+      <c r="E17">
+        <v>659</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>607</v>
+      </c>
+      <c r="L17">
+        <v>615</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>611</v>
+      </c>
+      <c r="O17">
+        <v>620</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>